--- a/game-config/src/main/resources/table/ConfigNotice.xlsx
+++ b/game-config/src/main/resources/table/ConfigNotice.xlsx
@@ -28,10 +28,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>en</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,6 +61,10 @@
   </si>
   <si>
     <t>账号{}不存在!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +433,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -448,13 +448,13 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -462,13 +462,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -476,13 +476,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -490,13 +490,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
